--- a/Algorithms.xlsx
+++ b/Algorithms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Placement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURAB SAHARE\Documents\GitHub\Placement-Preparation-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26A4F00-47A2-43BF-9B12-4E3986E6B01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF618F89-0903-4326-922B-0478645C2C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,6 +491,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -845,18 +848,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -897,7 +898,6 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -914,6 +914,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,13 +972,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -989,6 +1000,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1049,7 +1067,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E1B8535-3056-43D0-9E09-FF37881F0EDE}" name="Table2" displayName="Table2" ref="A1:B15" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E1B8535-3056-43D0-9E09-FF37881F0EDE}" name="Table2" displayName="Table2" ref="A1:B15" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
   <autoFilter ref="A1:B15" xr:uid="{2E1B8535-3056-43D0-9E09-FF37881F0EDE}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{181305F9-D95F-4070-A6EF-4E0B6238CBBF}" name="TOPIC" dataDxfId="1"/>
@@ -1324,7 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1335,122 +1353,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1471,1352 +1489,1354 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE702D7-0B2F-4978-8BC7-BEBB7CD3E340}">
   <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="52.88671875" style="57" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" style="54" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="55" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="56">
+        <v>45874</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="57"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="57"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="57"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="57"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="57"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="57"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="57"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="57"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="57"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="58"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="56"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="57"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="57"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="57"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="57"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="57"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="57"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="57"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="57"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="57"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="58"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="56"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="57"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="57"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="57"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="57"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="57"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="57"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="57"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="57"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="57"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="58"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="56"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="57"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="57"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="57"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" s="57"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="10"/>
+      <c r="C40" s="57"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="57"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="57"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="10"/>
+      <c r="C43" s="57"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="57"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="10"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="58"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="10"/>
+      <c r="C46" s="56"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="10"/>
+      <c r="C47" s="57"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="57"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="10"/>
+      <c r="C49" s="57"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="10"/>
+      <c r="C50" s="57"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="10"/>
+      <c r="C51" s="57"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" s="57"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="10"/>
+      <c r="C53" s="57"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="10"/>
+      <c r="C54" s="57"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="10"/>
+      <c r="C55" s="57"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="10"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="58"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="10"/>
+      <c r="C57" s="56"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="B58" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="10"/>
+      <c r="C58" s="57"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="10"/>
+      <c r="C59" s="57"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="10"/>
+      <c r="C60" s="57"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="10"/>
+      <c r="C61" s="57"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="10"/>
+      <c r="C62" s="57"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="10"/>
+      <c r="C63" s="57"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="10"/>
+      <c r="C64" s="57"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="B65" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="10"/>
+      <c r="C65" s="57"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="55" t="s">
+      <c r="B66" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="10"/>
+      <c r="C66" s="57"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="10"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="10"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="58"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="10"/>
+      <c r="C68" s="56"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="10"/>
+      <c r="C69" s="57"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="10"/>
+      <c r="C70" s="57"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="10"/>
+      <c r="C71" s="57"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B72" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C72" s="10"/>
+      <c r="C72" s="57"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="55" t="s">
+      <c r="B73" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C73" s="10"/>
+      <c r="C73" s="57"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C74" s="10"/>
+      <c r="C74" s="57"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="10"/>
+      <c r="C75" s="57"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="10"/>
+      <c r="C76" s="57"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="55" t="s">
+      <c r="B77" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C77" s="10"/>
+      <c r="C77" s="57"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="10"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="10"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="58"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="55" t="s">
+      <c r="B79" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="10"/>
+      <c r="C79" s="56"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="29" t="s">
+      <c r="A80" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="55" t="s">
+      <c r="B80" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="10"/>
+      <c r="C80" s="57"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="55" t="s">
+      <c r="B81" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="10"/>
+      <c r="C81" s="57"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="55" t="s">
+      <c r="B82" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C82" s="10"/>
+      <c r="C82" s="57"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="55" t="s">
+      <c r="B83" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C83" s="10"/>
+      <c r="C83" s="57"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="55" t="s">
+      <c r="B84" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="10"/>
+      <c r="C84" s="57"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="55" t="s">
+      <c r="B85" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C85" s="10"/>
+      <c r="C85" s="57"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="10"/>
+      <c r="C86" s="57"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="10"/>
+      <c r="C87" s="57"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="55" t="s">
+      <c r="B88" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="10"/>
+      <c r="C88" s="57"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="10"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="10"/>
+      <c r="A89" s="49"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="58"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="32" t="s">
+      <c r="A90" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C90" s="10"/>
+      <c r="C90" s="56"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="32" t="s">
+      <c r="A91" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B91" s="55" t="s">
+      <c r="B91" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="10"/>
+      <c r="C91" s="57"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="32" t="s">
+      <c r="A92" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="55" t="s">
+      <c r="B92" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="10"/>
+      <c r="C92" s="57"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="B93" s="55" t="s">
+      <c r="B93" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="10"/>
+      <c r="C93" s="57"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="55" t="s">
+      <c r="B94" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="10"/>
+      <c r="C94" s="57"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="33" t="s">
+      <c r="A95" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="B95" s="55" t="s">
+      <c r="B95" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="10"/>
+      <c r="C95" s="57"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="34" t="s">
+      <c r="A96" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="55" t="s">
+      <c r="B96" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="10"/>
+      <c r="C96" s="57"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="34" t="s">
+      <c r="A97" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="55" t="s">
+      <c r="B97" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="10"/>
+      <c r="C97" s="57"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="55" t="s">
+      <c r="B98" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="10"/>
+      <c r="C98" s="57"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="34" t="s">
+      <c r="A99" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="55" t="s">
+      <c r="B99" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="10"/>
+      <c r="C99" s="57"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="10"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="10"/>
+      <c r="A100" s="49"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="58"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="35" t="s">
+      <c r="A101" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="55" t="s">
+      <c r="B101" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="C101" s="10"/>
+      <c r="C101" s="56"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B102" s="55" t="s">
+      <c r="B102" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C102" s="10"/>
+      <c r="C102" s="57"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="35" t="s">
+      <c r="A103" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="55" t="s">
+      <c r="B103" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="C103" s="10"/>
+      <c r="C103" s="57"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="36" t="s">
+      <c r="A104" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B104" s="55" t="s">
+      <c r="B104" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="C104" s="10"/>
+      <c r="C104" s="57"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="36" t="s">
+      <c r="A105" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="55" t="s">
+      <c r="B105" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="C105" s="10"/>
+      <c r="C105" s="57"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="36" t="s">
+      <c r="A106" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="55" t="s">
+      <c r="B106" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="C106" s="10"/>
+      <c r="C106" s="57"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B107" s="55" t="s">
+      <c r="B107" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="C107" s="10"/>
+      <c r="C107" s="57"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="37" t="s">
+      <c r="A108" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="55" t="s">
+      <c r="B108" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="C108" s="10"/>
+      <c r="C108" s="57"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="37" t="s">
+      <c r="A109" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B109" s="55" t="s">
+      <c r="B109" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="C109" s="10"/>
+      <c r="C109" s="57"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="37" t="s">
+      <c r="A110" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="55" t="s">
+      <c r="B110" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="10"/>
+      <c r="C110" s="57"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="10"/>
-      <c r="B111" s="55"/>
-      <c r="C111" s="10"/>
+      <c r="A111" s="49"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="58"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="38" t="s">
+      <c r="A112" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="55" t="s">
+      <c r="B112" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="C112" s="10"/>
+      <c r="C112" s="56"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="38" t="s">
+      <c r="A113" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="55" t="s">
+      <c r="B113" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="C113" s="10"/>
+      <c r="C113" s="57"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="38" t="s">
+      <c r="A114" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B114" s="55" t="s">
+      <c r="B114" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C114" s="10"/>
+      <c r="C114" s="57"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="39" t="s">
+      <c r="A115" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="55" t="s">
+      <c r="B115" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="C115" s="10"/>
+      <c r="C115" s="57"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="39" t="s">
+      <c r="A116" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="55" t="s">
+      <c r="B116" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="C116" s="10"/>
+      <c r="C116" s="57"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="39" t="s">
+      <c r="A117" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="55" t="s">
+      <c r="B117" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="C117" s="10"/>
+      <c r="C117" s="57"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="40" t="s">
+      <c r="A118" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="55" t="s">
+      <c r="B118" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C118" s="10"/>
+      <c r="C118" s="57"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="40" t="s">
+      <c r="A119" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="55" t="s">
+      <c r="B119" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="C119" s="10"/>
+      <c r="C119" s="57"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="40" t="s">
+      <c r="A120" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="55" t="s">
+      <c r="B120" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C120" s="10"/>
+      <c r="C120" s="57"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="40" t="s">
+      <c r="A121" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B121" s="55" t="s">
+      <c r="B121" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="C121" s="10"/>
+      <c r="C121" s="57"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="10"/>
-      <c r="B122" s="55"/>
-      <c r="C122" s="10"/>
+      <c r="A122" s="49"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="58"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="41" t="s">
+      <c r="A123" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B123" s="55" t="s">
+      <c r="B123" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C123" s="10"/>
+      <c r="C123" s="56"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="41" t="s">
+      <c r="A124" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B124" s="55" t="s">
+      <c r="B124" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="C124" s="10"/>
+      <c r="C124" s="57"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B125" s="55" t="s">
+      <c r="B125" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C125" s="10"/>
+      <c r="C125" s="57"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="42" t="s">
+      <c r="A126" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B126" s="55" t="s">
+      <c r="B126" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="C126" s="10"/>
+      <c r="C126" s="57"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="42" t="s">
+      <c r="A127" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B127" s="55" t="s">
+      <c r="B127" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="C127" s="10"/>
+      <c r="C127" s="57"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="42" t="s">
+      <c r="A128" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B128" s="55" t="s">
+      <c r="B128" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C128" s="10"/>
+      <c r="C128" s="57"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="43" t="s">
+      <c r="A129" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B129" s="55" t="s">
+      <c r="B129" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C129" s="10"/>
+      <c r="C129" s="57"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="43" t="s">
+      <c r="A130" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B130" s="55" t="s">
+      <c r="B130" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C130" s="10"/>
+      <c r="C130" s="57"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="43" t="s">
+      <c r="A131" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B131" s="55" t="s">
+      <c r="B131" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C131" s="10"/>
+      <c r="C131" s="57"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="43" t="s">
+      <c r="A132" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B132" s="55" t="s">
+      <c r="B132" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="C132" s="10"/>
+      <c r="C132" s="57"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="10"/>
-      <c r="B133" s="55"/>
-      <c r="C133" s="10"/>
+      <c r="A133" s="49"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="58"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="44" t="s">
+      <c r="A134" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B134" s="55" t="s">
+      <c r="B134" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="C134" s="10"/>
+      <c r="C134" s="56"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="44" t="s">
+      <c r="A135" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B135" s="55" t="s">
+      <c r="B135" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="C135" s="10"/>
+      <c r="C135" s="57"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="44" t="s">
+      <c r="A136" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B136" s="55" t="s">
+      <c r="B136" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="C136" s="10"/>
+      <c r="C136" s="57"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="45" t="s">
+      <c r="A137" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B137" s="55" t="s">
+      <c r="B137" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="C137" s="10"/>
+      <c r="C137" s="57"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="45" t="s">
+      <c r="A138" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B138" s="55" t="s">
+      <c r="B138" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="C138" s="10"/>
+      <c r="C138" s="57"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="45" t="s">
+      <c r="A139" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B139" s="55" t="s">
+      <c r="B139" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C139" s="10"/>
+      <c r="C139" s="57"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="46" t="s">
+      <c r="A140" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B140" s="55" t="s">
+      <c r="B140" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="C140" s="10"/>
+      <c r="C140" s="57"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="46" t="s">
+      <c r="A141" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B141" s="55" t="s">
+      <c r="B141" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="C141" s="10"/>
+      <c r="C141" s="57"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="46" t="s">
+      <c r="A142" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B142" s="55" t="s">
+      <c r="B142" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="C142" s="10"/>
+      <c r="C142" s="57"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="46" t="s">
+      <c r="A143" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B143" s="55" t="s">
+      <c r="B143" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="C143" s="10"/>
+      <c r="C143" s="57"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="10"/>
-      <c r="B144" s="55"/>
-      <c r="C144" s="10"/>
+      <c r="A144" s="49"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="58"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="47" t="s">
+      <c r="A145" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B145" s="55" t="s">
+      <c r="B145" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C145" s="10"/>
+      <c r="C145" s="57"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="47" t="s">
+      <c r="A146" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B146" s="55" t="s">
+      <c r="B146" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C146" s="10"/>
+      <c r="C146" s="57"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="47" t="s">
+      <c r="A147" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B147" s="55" t="s">
+      <c r="B147" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="C147" s="10"/>
+      <c r="C147" s="57"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="48" t="s">
+      <c r="A148" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B148" s="55" t="s">
+      <c r="B148" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="C148" s="10"/>
+      <c r="C148" s="57"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="48" t="s">
+      <c r="A149" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B149" s="55" t="s">
+      <c r="B149" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="C149" s="10"/>
+      <c r="C149" s="57"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="48" t="s">
+      <c r="A150" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B150" s="55" t="s">
+      <c r="B150" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="C150" s="10"/>
+      <c r="C150" s="57"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="49" t="s">
+      <c r="A151" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B151" s="55" t="s">
+      <c r="B151" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C151" s="10"/>
+      <c r="C151" s="57"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="49" t="s">
+      <c r="A152" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B152" s="55" t="s">
+      <c r="B152" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="C152" s="10"/>
+      <c r="C152" s="57"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="49" t="s">
+      <c r="A153" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B153" s="55" t="s">
+      <c r="B153" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="C153" s="10"/>
+      <c r="C153" s="57"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="50" t="s">
+      <c r="A154" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B154" s="56" t="s">
+      <c r="B154" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="C154" s="52"/>
+      <c r="C154" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithms.xlsx
+++ b/Algorithms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURAB SAHARE\Documents\GitHub\Placement-Preparation-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF618F89-0903-4326-922B-0478645C2C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC18089B-FF71-431E-BE78-187407394DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -914,11 +914,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1529,7 +1529,9 @@
       <c r="B3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="57">
+        <v>45875</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">

--- a/Algorithms.xlsx
+++ b/Algorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURAB SAHARE\Documents\GitHub\Placement-Preparation-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC18089B-FF71-431E-BE78-187407394DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3A9EF1-009B-408D-A4D2-64F98CEA329D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1540,7 +1540,9 @@
       <c r="B4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="57">
+        <v>45876</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">

--- a/Algorithms.xlsx
+++ b/Algorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURAB SAHARE\Documents\GitHub\Placement-Preparation-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3A9EF1-009B-408D-A4D2-64F98CEA329D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFAF231-5CA0-422B-8875-DC78E907E9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1551,7 +1551,9 @@
       <c r="B5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="57">
+        <v>45877</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">

--- a/Algorithms.xlsx
+++ b/Algorithms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURAB SAHARE\Documents\GitHub\Placement-Preparation-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFAF231-5CA0-422B-8875-DC78E907E9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39733D3-A040-434F-8526-67C858AB4F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1562,7 +1562,9 @@
       <c r="B6" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="57">
+        <v>45878</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">

--- a/Algorithms.xlsx
+++ b/Algorithms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURAB SAHARE\Documents\GitHub\Placement-Preparation-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39733D3-A040-434F-8526-67C858AB4F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD1CA43-FC83-482E-B8B5-9B37A6578904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1573,7 +1573,9 @@
       <c r="B7" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="57">
+        <v>45880</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">

--- a/Algorithms.xlsx
+++ b/Algorithms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURAB SAHARE\Documents\GitHub\Placement-Preparation-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD1CA43-FC83-482E-B8B5-9B37A6578904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333A1A35-F9B2-4B00-B65F-5693B42A767A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1584,7 +1584,9 @@
       <c r="B8" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="57">
+        <v>45884</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -1593,7 +1595,9 @@
       <c r="B9" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="57">
+        <v>45885</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">

--- a/Algorithms.xlsx
+++ b/Algorithms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURAB SAHARE\Documents\GitHub\Placement-Preparation-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333A1A35-F9B2-4B00-B65F-5693B42A767A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484D4BEC-FE14-4112-BA3A-F912195667A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="154">
   <si>
     <t>TOPIC</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>Optimized Frequency Check</t>
+  </si>
+  <si>
+    <t>STATUS</t>
   </si>
 </sst>
 </file>
@@ -848,13 +851,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -932,11 +932,15 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <font>
         <strike val="0"/>
@@ -964,12 +968,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="9" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1067,11 +1109,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E1B8535-3056-43D0-9E09-FF37881F0EDE}" name="Table2" displayName="Table2" ref="A1:B15" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
-  <autoFilter ref="A1:B15" xr:uid="{2E1B8535-3056-43D0-9E09-FF37881F0EDE}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{181305F9-D95F-4070-A6EF-4E0B6238CBBF}" name="TOPIC" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{EE771CBE-A42A-4A06-82E6-00B0C1D40F2C}" name="ALGORITHM" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E1B8535-3056-43D0-9E09-FF37881F0EDE}" name="Table2" displayName="Table2" ref="A1:C15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
+  <autoFilter ref="A1:C15" xr:uid="{2E1B8535-3056-43D0-9E09-FF37881F0EDE}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{181305F9-D95F-4070-A6EF-4E0B6238CBBF}" name="TOPIC" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EE771CBE-A42A-4A06-82E6-00B0C1D40F2C}" name="ALGORITHM" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A91FED11-2F7F-492A-AE4B-41EF3F9D72D5}" name="STATUS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1340,135 +1383,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="72" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="73" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="73" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="73" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="73" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="73" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="73" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="73" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="73" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="73" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="73" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="46" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1490,1367 +1537,1370 @@
   <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="52.88671875" style="54" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="59" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" style="51" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="56" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="52" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="53">
         <v>45874</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="54">
         <v>45875</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="54">
         <v>45876</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="54">
         <v>45877</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="54">
         <v>45878</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="54">
         <v>45880</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="54">
         <v>45884</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="54">
         <v>45885</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="54">
+        <v>45886</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="54"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="58"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="55"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="56"/>
+      <c r="C13" s="53"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="54"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="57"/>
+      <c r="C15" s="54"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="57"/>
+      <c r="C16" s="54"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="57"/>
+      <c r="C17" s="54"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="57"/>
+      <c r="C18" s="54"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="57"/>
+      <c r="C19" s="54"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="54"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="57"/>
+      <c r="C21" s="54"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="57"/>
+      <c r="C22" s="54"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="58"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="55"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="56"/>
+      <c r="C24" s="53"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="57"/>
+      <c r="C25" s="54"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="57"/>
+      <c r="C26" s="54"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="57"/>
+      <c r="C27" s="54"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="57"/>
+      <c r="C28" s="54"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="57"/>
+      <c r="C29" s="54"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="57"/>
+      <c r="C30" s="54"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="57"/>
+      <c r="C31" s="54"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="57"/>
+      <c r="C32" s="54"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="57"/>
+      <c r="C33" s="54"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="58"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="55"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="56"/>
+      <c r="C35" s="53"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="57"/>
+      <c r="C36" s="54"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="57"/>
+      <c r="C37" s="54"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="57"/>
+      <c r="C38" s="54"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="57"/>
+      <c r="C39" s="54"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="57"/>
+      <c r="C40" s="54"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="57"/>
+      <c r="C41" s="54"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="57"/>
+      <c r="C42" s="54"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="57"/>
+      <c r="C43" s="54"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="57"/>
+      <c r="C44" s="54"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="49"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="58"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="55"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="56"/>
+      <c r="C46" s="53"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="57"/>
+      <c r="C47" s="54"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="57"/>
+      <c r="C48" s="54"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="57"/>
+      <c r="C49" s="54"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="57"/>
+      <c r="C50" s="54"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="57"/>
+      <c r="C51" s="54"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="57"/>
+      <c r="C52" s="54"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="57"/>
+      <c r="C53" s="54"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="57"/>
+      <c r="C54" s="54"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="57"/>
+      <c r="C55" s="54"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="49"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="58"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="55"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="65" t="s">
+      <c r="A57" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="56"/>
+      <c r="C57" s="53"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="57"/>
+      <c r="C58" s="54"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="57"/>
+      <c r="C59" s="54"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="52" t="s">
+      <c r="B60" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="57"/>
+      <c r="C60" s="54"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="57"/>
+      <c r="C61" s="54"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="57"/>
+      <c r="C62" s="54"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="57"/>
+      <c r="C63" s="54"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="57"/>
+      <c r="C64" s="54"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="52" t="s">
+      <c r="B65" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="57"/>
+      <c r="C65" s="54"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="57"/>
+      <c r="C66" s="54"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="49"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="58"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="55"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="66" t="s">
+      <c r="A68" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="56"/>
+      <c r="C68" s="53"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="52" t="s">
+      <c r="B69" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="57"/>
+      <c r="C69" s="54"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="57"/>
+      <c r="C70" s="54"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="57"/>
+      <c r="C71" s="54"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="52" t="s">
+      <c r="B72" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C72" s="57"/>
+      <c r="C72" s="54"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="52" t="s">
+      <c r="B73" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C73" s="57"/>
+      <c r="C73" s="54"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="52" t="s">
+      <c r="B74" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C74" s="57"/>
+      <c r="C74" s="54"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="52" t="s">
+      <c r="B75" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="57"/>
+      <c r="C75" s="54"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="52" t="s">
+      <c r="B76" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="57"/>
+      <c r="C76" s="54"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="52" t="s">
+      <c r="B77" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C77" s="57"/>
+      <c r="C77" s="54"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="49"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="58"/>
+      <c r="A78" s="46"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="55"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="67" t="s">
+      <c r="A79" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="51" t="s">
+      <c r="B79" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="56"/>
+      <c r="C79" s="53"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="27" t="s">
+      <c r="A80" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="52" t="s">
+      <c r="B80" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="57"/>
+      <c r="C80" s="54"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="52" t="s">
+      <c r="B81" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="57"/>
+      <c r="C81" s="54"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="52" t="s">
+      <c r="B82" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C82" s="57"/>
+      <c r="C82" s="54"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="52" t="s">
+      <c r="B83" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C83" s="57"/>
+      <c r="C83" s="54"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="52" t="s">
+      <c r="B84" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="57"/>
+      <c r="C84" s="54"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="52" t="s">
+      <c r="B85" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C85" s="57"/>
+      <c r="C85" s="54"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="29" t="s">
+      <c r="A86" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="52" t="s">
+      <c r="B86" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="57"/>
+      <c r="C86" s="54"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="29" t="s">
+      <c r="A87" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="52" t="s">
+      <c r="B87" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="57"/>
+      <c r="C87" s="54"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="52" t="s">
+      <c r="B88" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="57"/>
+      <c r="C88" s="54"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="49"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="58"/>
+      <c r="A89" s="46"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="55"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="68" t="s">
+      <c r="A90" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="51" t="s">
+      <c r="B90" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C90" s="56"/>
+      <c r="C90" s="53"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B91" s="52" t="s">
+      <c r="B91" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="57"/>
+      <c r="C91" s="54"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="52" t="s">
+      <c r="B92" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="57"/>
+      <c r="C92" s="54"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B93" s="52" t="s">
+      <c r="B93" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="57"/>
+      <c r="C93" s="54"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="52" t="s">
+      <c r="B94" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="57"/>
+      <c r="C94" s="54"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B95" s="52" t="s">
+      <c r="B95" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="57"/>
+      <c r="C95" s="54"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="32" t="s">
+      <c r="A96" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="52" t="s">
+      <c r="B96" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="57"/>
+      <c r="C96" s="54"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="32" t="s">
+      <c r="A97" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="52" t="s">
+      <c r="B97" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="57"/>
+      <c r="C97" s="54"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="32" t="s">
+      <c r="A98" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="52" t="s">
+      <c r="B98" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="57"/>
+      <c r="C98" s="54"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="32" t="s">
+      <c r="A99" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="52" t="s">
+      <c r="B99" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="57"/>
+      <c r="C99" s="54"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="49"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="58"/>
+      <c r="A100" s="46"/>
+      <c r="B100" s="50"/>
+      <c r="C100" s="55"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="69" t="s">
+      <c r="A101" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="51" t="s">
+      <c r="B101" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C101" s="56"/>
+      <c r="C101" s="53"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="33" t="s">
+      <c r="A102" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B102" s="52" t="s">
+      <c r="B102" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="C102" s="57"/>
+      <c r="C102" s="54"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="33" t="s">
+      <c r="A103" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="52" t="s">
+      <c r="B103" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="C103" s="57"/>
+      <c r="C103" s="54"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="34" t="s">
+      <c r="A104" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B104" s="52" t="s">
+      <c r="B104" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="C104" s="57"/>
+      <c r="C104" s="54"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="34" t="s">
+      <c r="A105" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="52" t="s">
+      <c r="B105" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="C105" s="57"/>
+      <c r="C105" s="54"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="34" t="s">
+      <c r="A106" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="52" t="s">
+      <c r="B106" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C106" s="57"/>
+      <c r="C106" s="54"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="35" t="s">
+      <c r="A107" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B107" s="52" t="s">
+      <c r="B107" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="C107" s="57"/>
+      <c r="C107" s="54"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="35" t="s">
+      <c r="A108" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="52" t="s">
+      <c r="B108" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="C108" s="57"/>
+      <c r="C108" s="54"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="35" t="s">
+      <c r="A109" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B109" s="52" t="s">
+      <c r="B109" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C109" s="57"/>
+      <c r="C109" s="54"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="35" t="s">
+      <c r="A110" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="52" t="s">
+      <c r="B110" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="57"/>
+      <c r="C110" s="54"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="49"/>
-      <c r="B111" s="53"/>
-      <c r="C111" s="58"/>
+      <c r="A111" s="46"/>
+      <c r="B111" s="50"/>
+      <c r="C111" s="55"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="70" t="s">
+      <c r="A112" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="51" t="s">
+      <c r="B112" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C112" s="56"/>
+      <c r="C112" s="53"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="36" t="s">
+      <c r="A113" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="52" t="s">
+      <c r="B113" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C113" s="57"/>
+      <c r="C113" s="54"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="36" t="s">
+      <c r="A114" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B114" s="52" t="s">
+      <c r="B114" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="C114" s="57"/>
+      <c r="C114" s="54"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="37" t="s">
+      <c r="A115" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="52" t="s">
+      <c r="B115" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="C115" s="57"/>
+      <c r="C115" s="54"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="37" t="s">
+      <c r="A116" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="52" t="s">
+      <c r="B116" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="C116" s="57"/>
+      <c r="C116" s="54"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="37" t="s">
+      <c r="A117" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="52" t="s">
+      <c r="B117" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C117" s="57"/>
+      <c r="C117" s="54"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="38" t="s">
+      <c r="A118" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="52" t="s">
+      <c r="B118" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C118" s="57"/>
+      <c r="C118" s="54"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="38" t="s">
+      <c r="A119" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="52" t="s">
+      <c r="B119" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C119" s="57"/>
+      <c r="C119" s="54"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="38" t="s">
+      <c r="A120" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="52" t="s">
+      <c r="B120" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C120" s="57"/>
+      <c r="C120" s="54"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="38" t="s">
+      <c r="A121" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B121" s="52" t="s">
+      <c r="B121" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C121" s="57"/>
+      <c r="C121" s="54"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="49"/>
-      <c r="B122" s="53"/>
-      <c r="C122" s="58"/>
+      <c r="A122" s="46"/>
+      <c r="B122" s="50"/>
+      <c r="C122" s="55"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="71" t="s">
+      <c r="A123" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B123" s="51" t="s">
+      <c r="B123" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="C123" s="56"/>
+      <c r="C123" s="53"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="39" t="s">
+      <c r="A124" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B124" s="52" t="s">
+      <c r="B124" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="C124" s="57"/>
+      <c r="C124" s="54"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="39" t="s">
+      <c r="A125" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B125" s="52" t="s">
+      <c r="B125" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C125" s="57"/>
+      <c r="C125" s="54"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="40" t="s">
+      <c r="A126" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B126" s="52" t="s">
+      <c r="B126" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="C126" s="57"/>
+      <c r="C126" s="54"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="40" t="s">
+      <c r="A127" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B127" s="52" t="s">
+      <c r="B127" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="C127" s="57"/>
+      <c r="C127" s="54"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="40" t="s">
+      <c r="A128" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B128" s="52" t="s">
+      <c r="B128" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="C128" s="57"/>
+      <c r="C128" s="54"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="41" t="s">
+      <c r="A129" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B129" s="52" t="s">
+      <c r="B129" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="C129" s="57"/>
+      <c r="C129" s="54"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="41" t="s">
+      <c r="A130" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B130" s="52" t="s">
+      <c r="B130" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C130" s="57"/>
+      <c r="C130" s="54"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="41" t="s">
+      <c r="A131" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B131" s="52" t="s">
+      <c r="B131" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="C131" s="57"/>
+      <c r="C131" s="54"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="41" t="s">
+      <c r="A132" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B132" s="52" t="s">
+      <c r="B132" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="C132" s="57"/>
+      <c r="C132" s="54"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="49"/>
-      <c r="B133" s="53"/>
-      <c r="C133" s="58"/>
+      <c r="A133" s="46"/>
+      <c r="B133" s="50"/>
+      <c r="C133" s="55"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="72" t="s">
+      <c r="A134" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B134" s="51" t="s">
+      <c r="B134" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C134" s="56"/>
+      <c r="C134" s="53"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="42" t="s">
+      <c r="A135" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B135" s="52" t="s">
+      <c r="B135" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="C135" s="57"/>
+      <c r="C135" s="54"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="42" t="s">
+      <c r="A136" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B136" s="52" t="s">
+      <c r="B136" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="C136" s="57"/>
+      <c r="C136" s="54"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="43" t="s">
+      <c r="A137" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B137" s="52" t="s">
+      <c r="B137" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="C137" s="57"/>
+      <c r="C137" s="54"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="43" t="s">
+      <c r="A138" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B138" s="52" t="s">
+      <c r="B138" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C138" s="57"/>
+      <c r="C138" s="54"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="43" t="s">
+      <c r="A139" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B139" s="52" t="s">
+      <c r="B139" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="C139" s="57"/>
+      <c r="C139" s="54"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="44" t="s">
+      <c r="A140" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B140" s="52" t="s">
+      <c r="B140" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="C140" s="57"/>
+      <c r="C140" s="54"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="44" t="s">
+      <c r="A141" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B141" s="52" t="s">
+      <c r="B141" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="C141" s="57"/>
+      <c r="C141" s="54"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="44" t="s">
+      <c r="A142" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B142" s="52" t="s">
+      <c r="B142" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="C142" s="57"/>
+      <c r="C142" s="54"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="44" t="s">
+      <c r="A143" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B143" s="52" t="s">
+      <c r="B143" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="C143" s="57"/>
+      <c r="C143" s="54"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="49"/>
-      <c r="B144" s="53"/>
-      <c r="C144" s="58"/>
+      <c r="A144" s="46"/>
+      <c r="B144" s="50"/>
+      <c r="C144" s="55"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="45" t="s">
+      <c r="A145" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B145" s="52" t="s">
+      <c r="B145" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C145" s="57"/>
+      <c r="C145" s="54"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="45" t="s">
+      <c r="A146" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B146" s="52" t="s">
+      <c r="B146" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C146" s="57"/>
+      <c r="C146" s="54"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="45" t="s">
+      <c r="A147" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B147" s="52" t="s">
+      <c r="B147" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="C147" s="57"/>
+      <c r="C147" s="54"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="46" t="s">
+      <c r="A148" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B148" s="52" t="s">
+      <c r="B148" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="C148" s="57"/>
+      <c r="C148" s="54"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="46" t="s">
+      <c r="A149" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B149" s="52" t="s">
+      <c r="B149" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="C149" s="57"/>
+      <c r="C149" s="54"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="46" t="s">
+      <c r="A150" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B150" s="52" t="s">
+      <c r="B150" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="C150" s="57"/>
+      <c r="C150" s="54"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="47" t="s">
+      <c r="A151" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B151" s="52" t="s">
+      <c r="B151" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="C151" s="57"/>
+      <c r="C151" s="54"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="47" t="s">
+      <c r="A152" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B152" s="52" t="s">
+      <c r="B152" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="C152" s="57"/>
+      <c r="C152" s="54"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="47" t="s">
+      <c r="A153" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B153" s="52" t="s">
+      <c r="B153" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="C153" s="57"/>
+      <c r="C153" s="54"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="48" t="s">
+      <c r="A154" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B154" s="53" t="s">
+      <c r="B154" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="C154" s="58"/>
+      <c r="C154" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algorithms.xlsx
+++ b/Algorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURAB SAHARE\Documents\GitHub\Placement-Preparation-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484D4BEC-FE14-4112-BA3A-F912195667A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7FBA3B-DC57-4695-A312-008318CA9B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1537,7 +1537,7 @@
   <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1665,7 +1665,9 @@
       <c r="B11" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="54">
+        <v>45887</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="46"/>

--- a/Algorithms.xlsx
+++ b/Algorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURAB SAHARE\Documents\GitHub\Placement-Preparation-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7FBA3B-DC57-4695-A312-008318CA9B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA342AE-8FA8-40BB-834A-C2633ECBF46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1537,7 +1537,7 @@
   <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
